--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10.82491529718054</v>
+        <v>10.82491513413583</v>
       </c>
       <c r="D2" t="n">
         <v>181.0800018310547</v>
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5.063990584440301</v>
+        <v>5.063990869064373</v>
       </c>
       <c r="D5" t="n">
         <v>145.8800048828125</v>
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.158294896368839</v>
+        <v>3.158294998605979</v>
       </c>
       <c r="D10" t="n">
         <v>308.6099853515625</v>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.150270644360928</v>
+        <v>3.150270584122598</v>
       </c>
       <c r="D11" t="n">
         <v>307.1600036621094</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.929128346113761</v>
+        <v>1.929128291458694</v>
       </c>
       <c r="D16" t="n">
         <v>506.7200012207031</v>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.715156046275222</v>
+        <v>1.715156002517462</v>
       </c>
       <c r="D23" t="n">
         <v>472.9800109863281</v>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.70799578962685</v>
+        <v>1.707995788931273</v>
       </c>
       <c r="D24" t="n">
         <v>336.6400146484375</v>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.66810776932781</v>
+        <v>1.668107767415974</v>
       </c>
       <c r="D25" t="n">
         <v>182.4100036621094</v>
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.476898538400404</v>
+        <v>1.476898506117011</v>
       </c>
       <c r="D37" t="n">
         <v>101.2900009155273</v>
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.373068182572032</v>
+        <v>1.373068148525347</v>
       </c>
       <c r="D42" t="n">
         <v>87.86000061035156</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.328058739502685</v>
+        <v>1.328058791690643</v>
       </c>
       <c r="D46" t="n">
         <v>101.0899963378906</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.254649745156265</v>
+        <v>1.254649829710647</v>
       </c>
       <c r="D49" t="n">
         <v>327.3800048828125</v>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1.057634740400184</v>
+        <v>1.057634809602946</v>
       </c>
       <c r="D56" t="n">
         <v>106.5800018310547</v>
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.9759625229747673</v>
+        <v>0.9759624962974487</v>
       </c>
       <c r="D59" t="n">
         <v>79.54000091552734</v>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.9623959038164049</v>
+        <v>0.9623958474081418</v>
       </c>
       <c r="D62" t="n">
         <v>893.47998046875</v>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.8354232658454743</v>
+        <v>0.8354232024009112</v>
       </c>
       <c r="D72" t="n">
         <v>161.9600067138672</v>
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.8264884546699931</v>
+        <v>0.8264885662161072</v>
       </c>
       <c r="D75" t="n">
         <v>203.2899932861328</v>
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.7218810156698124</v>
+        <v>0.7218810244334731</v>
       </c>
       <c r="D82" t="n">
         <v>239.0200042724609</v>
@@ -2879,7 +2879,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.7142254768372055</v>
+        <v>0.7142255247931981</v>
       </c>
       <c r="D83" t="n">
         <v>175.25</v>
@@ -3103,7 +3103,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.5945726882725286</v>
+        <v>0.5945726580238316</v>
       </c>
       <c r="D91" t="n">
         <v>346.3099975585938</v>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.5683428257787396</v>
+        <v>0.5683428556446982</v>
       </c>
       <c r="D93" t="n">
         <v>70.05999755859375</v>
@@ -3299,7 +3299,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.5149192466283645</v>
+        <v>0.5149193287167952</v>
       </c>
       <c r="D98" t="n">
         <v>36.5</v>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.5115650093639454</v>
+        <v>0.5115650700780672</v>
       </c>
       <c r="D99" t="n">
         <v>196.2100067138672</v>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.5276093272200788</v>
+        <v>0.5276093291249655</v>
       </c>
       <c r="D18" t="n">
         <v>27.70000076293945</v>
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.4500385749657713</v>
+        <v>0.4500385746254165</v>
       </c>
       <c r="D34" t="n">
         <v>257.9400024414062</v>
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.4322428574201366</v>
+        <v>0.4322429017775922</v>
       </c>
       <c r="D50" t="n">
         <v>111.5699996948242</v>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.3946958817144504</v>
+        <v>0.394695869071177</v>
       </c>
       <c r="D65" t="n">
         <v>58.70999908447266</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.3697634053374089</v>
+        <v>0.3697632811527388</v>
       </c>
       <c r="D80" t="n">
         <v>147.75</v>
@@ -5587,7 +5587,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.3581817609951627</v>
+        <v>0.3581817556742933</v>
       </c>
       <c r="D87" t="n">
         <v>72.47000122070312</v>
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.3376374027107679</v>
+        <v>0.3376374102308286</v>
       </c>
       <c r="D96" t="n">
         <v>369.9700012207031</v>
@@ -5837,7 +5837,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.3367607150828615</v>
+        <v>0.3367607115603202</v>
       </c>
       <c r="D97" t="n">
         <v>658.77001953125</v>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.3359926089311878</v>
+        <v>0.3359926241391083</v>
       </c>
       <c r="D100" t="n">
         <v>5393.740234375</v>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.3162972322712766</v>
+        <v>0.316297245074399</v>
       </c>
       <c r="D108" t="n">
         <v>271.8900146484375</v>
@@ -6662,7 +6662,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.2827500731360261</v>
+        <v>0.2827500717634141</v>
       </c>
       <c r="D130" t="n">
         <v>168.3200073242188</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.2680453191723713</v>
+        <v>0.2680453546896924</v>
       </c>
       <c r="D139" t="n">
         <v>234.2299957275391</v>
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.2672024016641565</v>
+        <v>0.2672024121045141</v>
       </c>
       <c r="D140" t="n">
         <v>66.30999755859375</v>
@@ -6987,7 +6987,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.2656620384258125</v>
+        <v>0.2656620014260275</v>
       </c>
       <c r="D143" t="n">
         <v>110.3600006103516</v>
@@ -7062,7 +7062,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.2578499801765676</v>
+        <v>0.2578499028097828</v>
       </c>
       <c r="D146" t="n">
         <v>130.0700073242188</v>
@@ -7162,7 +7162,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.2479118190866875</v>
+        <v>0.2479118172289471</v>
       </c>
       <c r="D150" t="n">
         <v>201.6199951171875</v>
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.2297014095540519</v>
+        <v>0.2297014084590103</v>
       </c>
       <c r="D156" t="n">
         <v>23.79999923706055</v>
@@ -7487,7 +7487,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.2184477342774105</v>
+        <v>0.2184476735551135</v>
       </c>
       <c r="D163" t="n">
         <v>216.3399963378906</v>
@@ -7537,7 +7537,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.2180197889227752</v>
+        <v>0.2180197128320924</v>
       </c>
       <c r="D165" t="n">
         <v>37.59999847412109</v>
@@ -7562,7 +7562,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.2148292109345347</v>
+        <v>0.2148291111607374</v>
       </c>
       <c r="D166" t="n">
         <v>149.9900054931641</v>
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.2022958662855168</v>
+        <v>0.202295947187997</v>
       </c>
       <c r="D168" t="n">
         <v>274.4400024414062</v>
@@ -7762,7 +7762,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.1836606262354108</v>
+        <v>0.183660603427614</v>
       </c>
       <c r="D174" t="n">
         <v>67.16000366210938</v>
@@ -7787,7 +7787,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.183563617324194</v>
+        <v>0.1835636173454317</v>
       </c>
       <c r="D175" t="n">
         <v>47.68000030517578</v>
@@ -7937,7 +7937,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.1595509799726524</v>
+        <v>0.1595510826286183</v>
       </c>
       <c r="D181" t="n">
         <v>127.6399993896484</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.1525318154275507</v>
+        <v>0.1525317215708883</v>
       </c>
       <c r="D185" t="n">
         <v>103.2799987792969</v>
@@ -8062,7 +8062,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.1505435816217685</v>
+        <v>0.1505437515700126</v>
       </c>
       <c r="D186" t="n">
         <v>56.33000183105469</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.1482425544691344</v>
+        <v>0.1482425675702727</v>
       </c>
       <c r="D187" t="n">
         <v>226.2700042724609</v>
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.1441749896298589</v>
+        <v>0.1441749746985956</v>
       </c>
       <c r="D188" t="n">
         <v>52.02999877929688</v>
@@ -8137,7 +8137,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.1429962273533314</v>
+        <v>0.142996347341447</v>
       </c>
       <c r="D189" t="n">
         <v>35.84000015258789</v>
@@ -8212,7 +8212,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.1371786208186487</v>
+        <v>0.1371786732983543</v>
       </c>
       <c r="D192" t="n">
         <v>148.1600036621094</v>
@@ -8237,7 +8237,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.1338841444885368</v>
+        <v>0.1338841048724964</v>
       </c>
       <c r="D193" t="n">
         <v>34.29000091552734</v>
@@ -8337,7 +8337,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.1309443797381214</v>
+        <v>0.1309443476061089</v>
       </c>
       <c r="D197" t="n">
         <v>72.75</v>
@@ -8462,7 +8462,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.121006623825253</v>
+        <v>0.1210066422761597</v>
       </c>
       <c r="D202" t="n">
         <v>80.08999633789062</v>
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0.1026535508364453</v>
+        <v>0.1026534510929369</v>
       </c>
       <c r="D212" t="n">
         <v>15.98999977111816</v>
@@ -8762,7 +8762,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0.09717139432502571</v>
+        <v>0.09717140749968149</v>
       </c>
       <c r="D214" t="n">
         <v>58.2599983215332</v>
@@ -8987,7 +8987,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.07518153042892772</v>
+        <v>0.07518152208058346</v>
       </c>
       <c r="D223" t="n">
         <v>287.4500122070312</v>
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0.04467285143209669</v>
+        <v>0.04467291488502228</v>
       </c>
       <c r="D232" t="n">
         <v>65.76999664306641</v>
@@ -9262,7 +9262,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0.04121632009437927</v>
+        <v>0.0412163238671986</v>
       </c>
       <c r="D234" t="n">
         <v>213.4400024414062</v>
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.03572977676032293</v>
+        <v>0.0357297956972052</v>
       </c>
       <c r="D236" t="n">
         <v>23.26000022888184</v>
@@ -9362,7 +9362,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.03367522645284279</v>
+        <v>0.03367526097249286</v>
       </c>
       <c r="D238" t="n">
         <v>327.4200134277344</v>
@@ -9412,7 +9412,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.03051442334485475</v>
+        <v>0.03051441124820535</v>
       </c>
       <c r="D240" t="n">
         <v>442.510009765625</v>
@@ -9512,7 +9512,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0.02455478883910896</v>
+        <v>0.02455481718321485</v>
       </c>
       <c r="D244" t="n">
         <v>315.8399963378906</v>
@@ -9587,7 +9587,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0.0195012449709714</v>
+        <v>0.01950124634114708</v>
       </c>
       <c r="D247" t="n">
         <v>195.5899963378906</v>
@@ -10012,7 +10012,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0.00424041851690843</v>
+        <v>0.004240437609717185</v>
       </c>
       <c r="D264" t="n">
         <v>86.02999877929688</v>
@@ -10112,7 +10112,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0.002625053700569804</v>
+        <v>0.002625061618641813</v>
       </c>
       <c r="D268" t="n">
         <v>259.9100036621094</v>
